--- a/季诚/成交客户/立早电子/标签.xlsx
+++ b/季诚/成交客户/立早电子/标签.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9540"/>
+    <workbookView windowWidth="22488" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="2835白光" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>IV：</t>
   </si>
   <si>
-    <t>F(18-20LM)</t>
+    <t>E(16-18LM)</t>
   </si>
   <si>
     <t>VF：</t>
@@ -46,7 +46,7 @@
     <t>Quantity：</t>
   </si>
   <si>
-    <t>68000 PCS</t>
+    <t>85000 PCS</t>
   </si>
   <si>
     <t>Remarks：</t>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -81,19 +81,59 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,48 +153,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,62 +185,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +238,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,175 +280,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,78 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,6 +449,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -529,153 +496,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1080,7 +1080,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.16" bottom="0.04" header="0.08" footer="0.11"/>
-  <pageSetup paperSize="260" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="260" scale="59" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/季诚/成交客户/立早电子/标签.xlsx
+++ b/季诚/成交客户/立早电子/标签.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9612"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="2835白光" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>IV：</t>
   </si>
   <si>
-    <t>E(16-18LM)</t>
+    <t>F(118-20LM)</t>
   </si>
   <si>
     <t>VF：</t>
@@ -46,7 +46,7 @@
     <t>Quantity：</t>
   </si>
   <si>
-    <t>85000 PCS</t>
+    <t>102000 PCS</t>
   </si>
   <si>
     <t>Remarks：</t>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/季诚/成交客户/立早电子/标签.xlsx
+++ b/季诚/成交客户/立早电子/标签.xlsx
@@ -31,13 +31,13 @@
     <t>IV：</t>
   </si>
   <si>
-    <t>F(118-20LM)</t>
+    <t>F(18-20LM)</t>
   </si>
   <si>
     <t>VF：</t>
   </si>
   <si>
-    <t>3.0-3.1V</t>
+    <t>3.1-3.2V</t>
   </si>
   <si>
     <t>Ra:</t>
@@ -46,7 +46,7 @@
     <t>Quantity：</t>
   </si>
   <si>
-    <t>102000 PCS</t>
+    <t>51000 PCS</t>
   </si>
   <si>
     <t>Remarks：</t>
@@ -79,9 +79,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,67 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,50 +228,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,6 +238,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,175 +400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,26 +432,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +471,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -482,6 +491,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,177 +529,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/季诚/成交客户/立早电子/标签.xlsx
+++ b/季诚/成交客户/立早电子/标签.xlsx
@@ -31,13 +31,13 @@
     <t>IV：</t>
   </si>
   <si>
-    <t>F(16-18LM)</t>
+    <t>F(18-20LM)</t>
   </si>
   <si>
     <t>VF：</t>
   </si>
   <si>
-    <t>3.1-3.2V</t>
+    <t>3.0-3.1V</t>
   </si>
   <si>
     <t>Ra:</t>
@@ -46,7 +46,7 @@
     <t>Quantity：</t>
   </si>
   <si>
-    <t>51000 PCS</t>
+    <t>17000 PCS</t>
   </si>
   <si>
     <t>Remarks：</t>
@@ -60,9 +60,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -79,16 +79,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,6 +115,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -115,40 +131,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,22 +184,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -183,47 +215,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +238,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,169 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,17 +432,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,9 +497,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,28 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,148 +534,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/季诚/成交客户/立早电子/标签.xlsx
+++ b/季诚/成交客户/立早电子/标签.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
-    <sheet name="2835白光" sheetId="1" r:id="rId1"/>
+    <sheet name="2835金黄光" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -37,7 +37,7 @@
     <t>VF：</t>
   </si>
   <si>
-    <t>3.0-3.1V</t>
+    <t>3.1-3.2V</t>
   </si>
   <si>
     <t>Ra:</t>
@@ -93,10 +93,108 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,111 +215,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -238,91 +238,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,79 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,11 +432,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,32 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,7 +490,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +502,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,15 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/季诚/成交客户/立早电子/标签.xlsx
+++ b/季诚/成交客户/立早电子/标签.xlsx
@@ -31,7 +31,7 @@
     <t>IV：</t>
   </si>
   <si>
-    <t>F(18-20LM)</t>
+    <t>F(16-18LM)</t>
   </si>
   <si>
     <t>VF：</t>
@@ -114,62 +114,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +159,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,24 +206,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,25 +244,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,139 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -458,21 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,34 +549,34 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,97 +585,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1080,7 +1080,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.16" bottom="0.04" header="0.08" footer="0.11"/>
-  <pageSetup paperSize="260" scale="59" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="260" scale="60" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>